--- a/docs/paper_experiment/preservation/preservation_without_check.xlsx
+++ b/docs/paper_experiment/preservation/preservation_without_check.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mituba/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/preservation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06778877-702F-0B46-9E04-6D73AF74D1C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12169DA1-42B6-764D-8618-841050E57EF5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26140" yWindow="-16900" windowWidth="25100" windowHeight="14500" activeTab="2" xr2:uid="{874E4FF5-F56B-7F45-A433-8D750156BC7A}"/>
+    <workbookView xWindow="40400" yWindow="-18880" windowWidth="29600" windowHeight="14500" activeTab="10" xr2:uid="{874E4FF5-F56B-7F45-A433-8D750156BC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="BM25" sheetId="1" r:id="rId1"/>
     <sheet name="edit" sheetId="2" r:id="rId2"/>
     <sheet name="sub" sheetId="3" r:id="rId3"/>
+    <sheet name="obfu" sheetId="4" r:id="rId4"/>
+    <sheet name="origin" sheetId="5" r:id="rId5"/>
+    <sheet name="intersection" sheetId="6" r:id="rId6"/>
+    <sheet name="diffrence" sheetId="7" r:id="rId7"/>
+    <sheet name="edit_obfu" sheetId="8" r:id="rId8"/>
+    <sheet name="edit_origin" sheetId="9" r:id="rId9"/>
+    <sheet name="edit_intersection" sheetId="10" r:id="rId10"/>
+    <sheet name="MLI" sheetId="12" r:id="rId11"/>
+    <sheet name="edit_difference" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="471">
   <si>
     <t>GoogleDocumentsListAtom</t>
   </si>
@@ -540,6 +549,908 @@
   </si>
   <si>
     <t>ToplinkTables</t>
+  </si>
+  <si>
+    <t>org.apache.cocoon.util.AbstractLogEnabled</t>
+  </si>
+  <si>
+    <t>org.apache.jackrabbit.extractor.AbstractTextExtractor</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdfviewer.ArrayEntry</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.CapitalizeAllWordsTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.CapitalizeTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.CenterTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.ChompTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.ChopNewlineTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.ChopTag</t>
+  </si>
+  <si>
+    <t>jp.naist.se.blinder.CipherDynamicCaller</t>
+  </si>
+  <si>
+    <t>org.apache.cocoon.util.ClassUtils</t>
+  </si>
+  <si>
+    <t>org.apache.cocoon.util.avalon.CLLoggerWrapper</t>
+  </si>
+  <si>
+    <t>org.pdfbox.afmtypes.CompositePart</t>
+  </si>
+  <si>
+    <t>org.pdfbox.exceptions.CryptographyException</t>
+  </si>
+  <si>
+    <t>org.codehaus.plexus.mailsender.util.DateFormatUtils</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.DecodeUrlTag</t>
+  </si>
+  <si>
+    <t>org.apache.cocoon.components.store.impl.DefaultStore</t>
+  </si>
+  <si>
+    <t>org.apache.jackrabbit.extractor.DefaultTextExtractor</t>
+  </si>
+  <si>
+    <t>org.apache.cocoon.components.store.impl.DefaultTransientStore</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.DeleteTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.EncodeUrlTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.EscapeTag</t>
+  </si>
+  <si>
+    <t>org.codehaus.xfire.jaxb.FilteringStaxResult</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.GetChompTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.GetPrechompTag</t>
+  </si>
+  <si>
+    <t>org.apache.cocoon.util.HashMap</t>
+  </si>
+  <si>
+    <t>no.tornado.brap.common.InvocationRequest</t>
+  </si>
+  <si>
+    <t>org.codehaus.xfire.jaxb.JaxbTypeRegistry</t>
+  </si>
+  <si>
+    <t>org.pdfbox.afmtypes.KernPair</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.LeftPadTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.LeftTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.LengthTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.LowerCaseTag</t>
+  </si>
+  <si>
+    <t>org.pdfbox.encoding.MacRomanEncoding</t>
+  </si>
+  <si>
+    <t>org.codehaus.plexus.mailsender.MailSender</t>
+  </si>
+  <si>
+    <t>org.codehaus.plexus.mailsender.MailSender$1</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.MetaphoneTag</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdmodel.interactive.action.type.PDActionGoTo</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdmodel.interactive.action.type.PDActionJavaScript</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdmodel.interactive.annotation.PDAnnotationWidget</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdmodel.graphics.color.PDColorSpace</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdmodel.interactive.documentnavigation.outline.PDDocumentOutline</t>
+  </si>
+  <si>
+    <t>org.pdfbox.PDFDebugger$1</t>
+  </si>
+  <si>
+    <t>org.pdfbox.PDFDebugger$2</t>
+  </si>
+  <si>
+    <t>org.pdfbox.PDFDebugger$3</t>
+  </si>
+  <si>
+    <t>org.pdfbox.PDFDebugger$4</t>
+  </si>
+  <si>
+    <t>org.pdfbox.encoding.PdfDocEncoding</t>
+  </si>
+  <si>
+    <t>org.pdfbox.PDFReader$1</t>
+  </si>
+  <si>
+    <t>org.pdfbox.PDFReader$2</t>
+  </si>
+  <si>
+    <t>org.pdfbox.PDFReader$3</t>
+  </si>
+  <si>
+    <t>org.pdfbox.util.PDFStreamEngine$StreamResources</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdfparser.PDFXref</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdmodel.common.PDMetadata</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdmodel.font.PDMMType1Font</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdmodel.interactive.digitalsignature.PDSignature</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.PrechompTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.QuoteRegexpTag</t>
+  </si>
+  <si>
+    <t>org.apache.cocoon.util.ReflectionUtils$DefaultMatcher</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.RemoveXmlTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.RepeatTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.ReverseDelimitedStringTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.ReverseTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.RightPadTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.RightTag</t>
+  </si>
+  <si>
+    <t>org.onebusaway.plugins.hsqldb.RunMojo$1</t>
+  </si>
+  <si>
+    <t>org.codehaus.mojo.jboss.packaging.SarInPlaceExplodedMojo</t>
+  </si>
+  <si>
+    <t>org.pdfbox.util.SimpleConfigurator</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.SoundexTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.SqueezeTag</t>
+  </si>
+  <si>
+    <t>org.pdfbox.encoding.StandardEncoding</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.StripEndTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.StripStartTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.StripTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.SwapCaseTag</t>
+  </si>
+  <si>
+    <t>org.pdfbox.util.TextPosition</t>
+  </si>
+  <si>
+    <t>org.wamblee.test.persistence.toplink.ToplinkTables</t>
+  </si>
+  <si>
+    <t>org.pdfbox.afmtypes.TrackKern</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.TrimTag</t>
+  </si>
+  <si>
+    <t>org.pdfbox.ttf.TTFTable</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.UncapitalizeTag</t>
+  </si>
+  <si>
+    <t>org.apache.taglibs.string.UpperCaseTag</t>
+  </si>
+  <si>
+    <t>org.pdfbox.encoding.WinAnsiEncoding</t>
+  </si>
+  <si>
+    <t>org.apache.xerces.xni.parser.XMLConfigurationException</t>
+  </si>
+  <si>
+    <t>org.apache.xerces.xni.parser.XMLInputSource</t>
+  </si>
+  <si>
+    <t>org.codehaus.xfire.jaxb.FilteringStaxResult$FilteringContentHandlerToXMLStreamWriter</t>
+  </si>
+  <si>
+    <t>org.codehaus.plexus.mailsender.MailSenderException</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdmodel.graphics.color.PDColorSpaceFactory</t>
+  </si>
+  <si>
+    <t>org.pdfbox.pdmodel.graphics.color.PDColorSpaceInstance</t>
+  </si>
+  <si>
+    <t>obfu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>origin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UsernamePasswordPrincipal</t>
+  </si>
+  <si>
+    <t>EHDefaultStore</t>
+  </si>
+  <si>
+    <t>MRUMemoryStore</t>
+  </si>
+  <si>
+    <t>StoreJanitorImpl</t>
+  </si>
+  <si>
+    <t>BufferedOutputStream</t>
+  </si>
+  <si>
+    <t>ByteRange</t>
+  </si>
+  <si>
+    <t>Deprecation$LoggerWrapper</t>
+  </si>
+  <si>
+    <t>Deprecation</t>
+  </si>
+  <si>
+    <t>EnumerationFactory</t>
+  </si>
+  <si>
+    <t>HashUtil</t>
+  </si>
+  <si>
+    <t>MIMEUtils</t>
+  </si>
+  <si>
+    <t>CompositeTextExtractor</t>
+  </si>
+  <si>
+    <t>ExtractorHandler</t>
+  </si>
+  <si>
+    <t>HTMLTextExtractor</t>
+  </si>
+  <si>
+    <t>MsExcelTextExtractor</t>
+  </si>
+  <si>
+    <t>MsOutlookTextExtractor</t>
+  </si>
+  <si>
+    <t>MsPowerPointTextExtractor</t>
+  </si>
+  <si>
+    <t>MsWordTextExtractor</t>
+  </si>
+  <si>
+    <t>OpenOfficeTextExtractor</t>
+  </si>
+  <si>
+    <t>PdfTextExtractor</t>
+  </si>
+  <si>
+    <t>PlainTextExtractor</t>
+  </si>
+  <si>
+    <t>PngTextExtractor</t>
+  </si>
+  <si>
+    <t>RTFTextExtractor</t>
+  </si>
+  <si>
+    <t>XMLTextExtractor</t>
+  </si>
+  <si>
+    <t>ClassLevelConstraintValidator</t>
+  </si>
+  <si>
+    <t>ReplaceTag</t>
+  </si>
+  <si>
+    <t>StringTagSupport</t>
+  </si>
+  <si>
+    <t>AugmentationsImpl$SmallContainer$SmallContainerKeyEnumeration</t>
+  </si>
+  <si>
+    <t>DefaultErrorHandler</t>
+  </si>
+  <si>
+    <t>NamespaceSupport$Prefixes</t>
+  </si>
+  <si>
+    <t>NamespaceSupport</t>
+  </si>
+  <si>
+    <t>XMLResourceIdentifierImpl</t>
+  </si>
+  <si>
+    <t>QName</t>
+  </si>
+  <si>
+    <t>XMLString</t>
+  </si>
+  <si>
+    <t>AbstractPackagingMojo</t>
+  </si>
+  <si>
+    <t>HarMojo</t>
+  </si>
+  <si>
+    <t>CreateApplicationBundleMojo</t>
+  </si>
+  <si>
+    <t>DefaultEncodingDetector</t>
+  </si>
+  <si>
+    <t>EclipseJavaCompiler$CompilationUnit</t>
+  </si>
+  <si>
+    <t>EclipseJavaCompiler$EclipseCompilerICompilerRequestor</t>
+  </si>
+  <si>
+    <t>EclipseJavaCompiler$EclipseCompilerINameEnvironment</t>
+  </si>
+  <si>
+    <t>EclipseJavaCompiler</t>
+  </si>
+  <si>
+    <t>SourceCodeLocator</t>
+  </si>
+  <si>
+    <t>AbstractMailSender</t>
+  </si>
+  <si>
+    <t>JaxbType</t>
+  </si>
+  <si>
+    <t>JaxbTypeCreator</t>
+  </si>
+  <si>
+    <t>AbstractEMBApplication</t>
+  </si>
+  <si>
+    <t>JDTCompilerAdapter</t>
+  </si>
+  <si>
+    <t>AntAdapterMessages</t>
+  </si>
+  <si>
+    <t>RunMojo</t>
+  </si>
+  <si>
+    <t>JasmineEventDataExtractor</t>
+  </si>
+  <si>
+    <t>AFMParser</t>
+  </si>
+  <si>
+    <t>FontMetric</t>
+  </si>
+  <si>
+    <t>PDFToTextTask</t>
+  </si>
+  <si>
+    <t>CMap</t>
+  </si>
+  <si>
+    <t>COSBoolean</t>
+  </si>
+  <si>
+    <t>COSDictionary</t>
+  </si>
+  <si>
+    <t>COSDocument</t>
+  </si>
+  <si>
+    <t>COSFloat</t>
+  </si>
+  <si>
+    <t>COSInteger</t>
+  </si>
+  <si>
+    <t>COSObject</t>
+  </si>
+  <si>
+    <t>COSStream</t>
+  </si>
+  <si>
+    <t>Decrypt</t>
+  </si>
+  <si>
+    <t>Encoding</t>
+  </si>
+  <si>
+    <t>Encrypt</t>
+  </si>
+  <si>
+    <t>DocumentEncryption</t>
+  </si>
+  <si>
+    <t>PDFEncryption</t>
+  </si>
+  <si>
+    <t>PrintFields</t>
+  </si>
+  <si>
+    <t>SetField</t>
+  </si>
+  <si>
+    <t>AddMetadataFromDocInfo</t>
+  </si>
+  <si>
+    <t>CreateBlankPDF</t>
+  </si>
+  <si>
+    <t>CreateBookmarks</t>
+  </si>
+  <si>
+    <t>HelloWorld</t>
+  </si>
+  <si>
+    <t>ImageToPDF</t>
+  </si>
+  <si>
+    <t>PrintBookmarks</t>
+  </si>
+  <si>
+    <t>PrintDocumentMetaData</t>
+  </si>
+  <si>
+    <t>ShowColorBoxes</t>
+  </si>
+  <si>
+    <t>AppendAndFillDoc</t>
+  </si>
+  <si>
+    <t>AppendDoc</t>
+  </si>
+  <si>
+    <t>CopyDoc</t>
+  </si>
+  <si>
+    <t>FieldsDoc</t>
+  </si>
+  <si>
+    <t>WriteDecodedDoc</t>
+  </si>
+  <si>
+    <t>ShowSignature</t>
+  </si>
+  <si>
+    <t>PrintTextLocations</t>
+  </si>
+  <si>
+    <t>ExportFDF</t>
+  </si>
+  <si>
+    <t>ExportXFDF</t>
+  </si>
+  <si>
+    <t>ExtractImages</t>
+  </si>
+  <si>
+    <t>ExtractText</t>
+  </si>
+  <si>
+    <t>ASCII85Filter</t>
+  </si>
+  <si>
+    <t>FlateFilter</t>
+  </si>
+  <si>
+    <t>LZWDictionary</t>
+  </si>
+  <si>
+    <t>LZWFilter</t>
+  </si>
+  <si>
+    <t>LZWNode</t>
+  </si>
+  <si>
+    <t>ImportFDF</t>
+  </si>
+  <si>
+    <t>ImportXFDF</t>
+  </si>
+  <si>
+    <t>ASCII85OutputStream</t>
+  </si>
+  <si>
+    <t>ByteArrayPushBackInputStream</t>
+  </si>
+  <si>
+    <t>NBitInputStream</t>
+  </si>
+  <si>
+    <t>NBitOutputStream</t>
+  </si>
+  <si>
+    <t>RandomAccessFileInputStream</t>
+  </si>
+  <si>
+    <t>RandomAccessFileOutputStream</t>
+  </si>
+  <si>
+    <t>PDFDebugger</t>
+  </si>
+  <si>
+    <t>PDFReader</t>
+  </si>
+  <si>
+    <t>PDFSplit</t>
+  </si>
+  <si>
+    <t>PageDrawer</t>
+  </si>
+  <si>
+    <t>PageWrapper</t>
+  </si>
+  <si>
+    <t>PDFPagePanel</t>
+  </si>
+  <si>
+    <t>PDFTreeCellRenderer</t>
+  </si>
+  <si>
+    <t>ContentStreamWriter</t>
+  </si>
+  <si>
+    <t>COSStandardOutputStream</t>
+  </si>
+  <si>
+    <t>COSWriter</t>
+  </si>
+  <si>
+    <t>COSWriterXRefEntry</t>
+  </si>
+  <si>
+    <t>COSArrayList</t>
+  </si>
+  <si>
+    <t>COSDictionaryMap</t>
+  </si>
+  <si>
+    <t>COSStreamArray</t>
+  </si>
+  <si>
+    <t>PDMatrix</t>
+  </si>
+  <si>
+    <t>PDNameTreeNode</t>
+  </si>
+  <si>
+    <t>PDObjectStream</t>
+  </si>
+  <si>
+    <t>PDRange</t>
+  </si>
+  <si>
+    <t>PDRectangle</t>
+  </si>
+  <si>
+    <t>PDStream</t>
+  </si>
+  <si>
+    <t>PDTextStream</t>
+  </si>
+  <si>
+    <t>PDPageContentStream</t>
+  </si>
+  <si>
+    <t>PDEncryptionDictionary</t>
+  </si>
+  <si>
+    <t>PDEncryptionManager</t>
+  </si>
+  <si>
+    <t>PDStandardEncryption</t>
+  </si>
+  <si>
+    <t>FDFDictionary</t>
+  </si>
+  <si>
+    <t>FDFField</t>
+  </si>
+  <si>
+    <t>FDFIconFit</t>
+  </si>
+  <si>
+    <t>FDFJavaScript</t>
+  </si>
+  <si>
+    <t>FDFPage</t>
+  </si>
+  <si>
+    <t>FDFTemplate</t>
+  </si>
+  <si>
+    <t>PDCIDFont</t>
+  </si>
+  <si>
+    <t>PDFontDescriptor</t>
+  </si>
+  <si>
+    <t>PDFontDescriptorAFM</t>
+  </si>
+  <si>
+    <t>PDFontDescriptorDictionary</t>
+  </si>
+  <si>
+    <t>PDFontFactory</t>
+  </si>
+  <si>
+    <t>PDSimpleFont</t>
+  </si>
+  <si>
+    <t>PDTrueTypeFont</t>
+  </si>
+  <si>
+    <t>PDType1Font</t>
+  </si>
+  <si>
+    <t>Type3StreamParser</t>
+  </si>
+  <si>
+    <t>PDCalGray</t>
+  </si>
+  <si>
+    <t>PDCalRGB</t>
+  </si>
+  <si>
+    <t>PDColorSpaceFactory</t>
+  </si>
+  <si>
+    <t>PDDeviceN</t>
+  </si>
+  <si>
+    <t>PDGamma</t>
+  </si>
+  <si>
+    <t>PDICCBased</t>
+  </si>
+  <si>
+    <t>PDIndexed</t>
+  </si>
+  <si>
+    <t>PDLab</t>
+  </si>
+  <si>
+    <t>PDSeparation</t>
+  </si>
+  <si>
+    <t>PDTristimulus</t>
+  </si>
+  <si>
+    <t>PDExtendedGraphicsState</t>
+  </si>
+  <si>
+    <t>PDFontSetting</t>
+  </si>
+  <si>
+    <t>PDGraphicsState</t>
+  </si>
+  <si>
+    <t>PDInlinedImage</t>
+  </si>
+  <si>
+    <t>PDJpeg</t>
+  </si>
+  <si>
+    <t>PDXObject</t>
+  </si>
+  <si>
+    <t>PDXObjectImage</t>
+  </si>
+  <si>
+    <t>PDAction</t>
+  </si>
+  <si>
+    <t>PDActionLaunch</t>
+  </si>
+  <si>
+    <t>PDActionRemoteGoTo</t>
+  </si>
+  <si>
+    <t>PDAnnotation</t>
+  </si>
+  <si>
+    <t>PDAppearanceDictionary</t>
+  </si>
+  <si>
+    <t>PDAppearanceStream</t>
+  </si>
+  <si>
+    <t>PDDestination</t>
+  </si>
+  <si>
+    <t>PDPageDestination</t>
+  </si>
+  <si>
+    <t>PDPageFitHeightDestination</t>
+  </si>
+  <si>
+    <t>PDPageFitRectangleDestination</t>
+  </si>
+  <si>
+    <t>PDPageFitWidthDestination</t>
+  </si>
+  <si>
+    <t>PDPageXYZDestination</t>
+  </si>
+  <si>
+    <t>PDOutlineItem</t>
+  </si>
+  <si>
+    <t>PDAcroForm</t>
+  </si>
+  <si>
+    <t>PDAppearance</t>
+  </si>
+  <si>
+    <t>PDCheckbox</t>
+  </si>
+  <si>
+    <t>PDChoiceButton</t>
+  </si>
+  <si>
+    <t>PDField</t>
+  </si>
+  <si>
+    <t>PDFieldFactory</t>
+  </si>
+  <si>
+    <t>PDRadioCollection</t>
+  </si>
+  <si>
+    <t>PDVariableText</t>
+  </si>
+  <si>
+    <t>PDDocumentCatalog</t>
+  </si>
+  <si>
+    <t>PDDocumentNameDictionary</t>
+  </si>
+  <si>
+    <t>PDPageNode</t>
+  </si>
+  <si>
+    <t>PDResources</t>
+  </si>
+  <si>
+    <t>PDTextState</t>
+  </si>
+  <si>
+    <t>COSHEXTable</t>
+  </si>
+  <si>
+    <t>COSObjectKey</t>
+  </si>
+  <si>
+    <t>IndexFiles</t>
+  </si>
+  <si>
+    <t>TextToPDF</t>
+  </si>
+  <si>
+    <t>MemoryTTFDataStream</t>
+  </si>
+  <si>
+    <t>OS2WindowsMetricsTable</t>
+  </si>
+  <si>
+    <t>RAFDataStream</t>
+  </si>
+  <si>
+    <t>TTFDataStream</t>
+  </si>
+  <si>
+    <t>DefaultFileFilter</t>
+  </si>
+  <si>
+    <t>ImageParameters</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Concatenate</t>
+  </si>
+  <si>
+    <t>Invoke</t>
+  </si>
+  <si>
+    <t>MoveText</t>
+  </si>
+  <si>
+    <t>MoveTextSetLeading</t>
+  </si>
+  <si>
+    <t>NextLine</t>
+  </si>
+  <si>
+    <t>SetMatrix</t>
+  </si>
+  <si>
+    <t>SetMoveAndShow</t>
+  </si>
+  <si>
+    <t>SetTextFont</t>
+  </si>
+  <si>
+    <t>ShowTextGlyph</t>
+  </si>
+  <si>
+    <t>PDFStreamEngine</t>
+  </si>
+  <si>
+    <t>PDFTextStripper</t>
+  </si>
+  <si>
+    <t>Splitter</t>
+  </si>
+  <si>
+    <t>GenerateLiveRebelMojo</t>
+  </si>
+  <si>
+    <t>GenerateRebelMojo</t>
+  </si>
+  <si>
+    <t>RebelXmlBuilder</t>
   </si>
 </sst>
 </file>
@@ -905,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8CBDC5-5BC4-094C-9601-78F3FAC105B2}">
   <dimension ref="A1:A171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A172"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1767,6 +2678,1970 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E97102A-8A57-984A-BBDB-16D69E9BF9CD}">
+  <dimension ref="A1:E65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1">
+        <v>22</v>
+      </c>
+      <c r="C1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C1:C84,"&gt;16")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50">
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51">
+        <v>29</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53">
+        <v>29</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>245</v>
+      </c>
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59">
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2317D67-A6A9-A04B-804D-FCA5AF6006B7}">
+  <dimension ref="A2:A241"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A242"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5653AD7-473F-FC47-B67A-DDF2EDED3A87}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2127,7 +5002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3FC80E-B623-914A-A90F-854AE18BA612}">
   <dimension ref="A1:A104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A105"/>
     </sheetView>
   </sheetViews>
@@ -2656,5 +5531,3595 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C7636-B304-8D48-82D7-C41264561FC1}">
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>239</v>
+      </c>
+      <c r="B69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>242</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07165188-F466-7745-AB30-6424006BF42D}">
+  <dimension ref="A1:B97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>250</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>254</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73159E69-660B-D845-9299-CDF56CCA3BA1}">
+  <dimension ref="A1:E84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(C2:C84,"&gt;16")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52">
+        <v>22</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>230</v>
+      </c>
+      <c r="B54">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59">
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64">
+        <v>33</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67">
+        <v>29</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69">
+        <v>32</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74">
+        <v>22</v>
+      </c>
+      <c r="C74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76">
+        <v>29</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83">
+        <v>29</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD479A88-BDEA-9D40-857E-A408933B81BD}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1EFCFF-05CA-4D43-A1E8-B4CB3DCA8231}">
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCEF41C-0ABD-0D4E-A07F-1D3AE9C53F8B}">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>